--- a/hw/display_bom.xlsx
+++ b/hw/display_bom.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\semestralni prace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\semestralni prace\sw\display_repository\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
     <sheet name="List2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,7 +191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -236,7 +236,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hw/display_bom.xlsx
+++ b/hw/display_bom.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>2,2uF/10V</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>Hasl, FR-4, 47x152mm</t>
+  </si>
+  <si>
+    <t>1800pF</t>
+  </si>
+  <si>
+    <t>2200pF</t>
+  </si>
+  <si>
+    <t>2700pF</t>
+  </si>
+  <si>
+    <t>3300pF</t>
+  </si>
+  <si>
+    <t>3900pF</t>
   </si>
 </sst>
 </file>
@@ -175,7 +190,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -333,7 +348,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -352,7 +367,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -633,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,6 +1226,97 @@
       <c r="D32" s="14">
         <f>SUM(D2:D31)</f>
         <v>22.023044890999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>2524826</v>
+      </c>
+      <c r="D40">
+        <v>0.248</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>2496845</v>
+      </c>
+      <c r="D41">
+        <v>0.185</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>2524833</v>
+      </c>
+      <c r="D42">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>2496853</v>
+      </c>
+      <c r="D43">
+        <v>0.182</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>2524841</v>
+      </c>
+      <c r="D44">
+        <v>0.248</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f>SUM(D40:D44)</f>
+        <v>1.139</v>
       </c>
     </row>
   </sheetData>

--- a/hw/display_bom.xlsx
+++ b/hw/display_bom.xlsx
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -368,6 +368,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -648,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,107 +776,107 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
+      <c r="A7" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10">
-        <v>2001642</v>
+      <c r="C7" s="15">
+        <v>2524826</v>
       </c>
       <c r="D7" s="7">
-        <v>0.15007839000000001</v>
-      </c>
-      <c r="E7" s="10">
+        <v>1.0198255999999999E-2</v>
+      </c>
+      <c r="E7" s="16">
         <v>1</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
+      <c r="A8" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10">
-        <v>2447310</v>
+      <c r="C8" s="15">
+        <v>2496845</v>
       </c>
       <c r="D8" s="7">
-        <v>4.2987909999999997E-3</v>
-      </c>
-      <c r="E8" s="10">
+        <v>7.6075700000000001E-3</v>
+      </c>
+      <c r="E8" s="16">
         <v>1</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>2</v>
+      <c r="A9" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10">
-        <v>2447353</v>
+      <c r="C9" s="15">
+        <v>2524833</v>
       </c>
       <c r="D9" s="7">
-        <v>4.0037759999999997E-3</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4</v>
+        <v>1.1349672E-2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
+      <c r="A10" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10">
-        <v>9330828</v>
+      <c r="C10" s="15">
+        <v>2496853</v>
       </c>
       <c r="D10" s="7">
-        <v>1.3907850000000001E-3</v>
-      </c>
-      <c r="E10" s="10">
+        <v>7.4842040000000004E-3</v>
+      </c>
+      <c r="E10" s="16">
         <v>1</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
+      <c r="A11" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10">
-        <v>9331034</v>
+      <c r="C11" s="15">
+        <v>2524841</v>
       </c>
       <c r="D11" s="7">
-        <v>1.5172199999999999E-3</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2</v>
+        <v>1.0198255999999999E-2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>9330976</v>
+        <v>2001642</v>
       </c>
       <c r="D12" s="7">
-        <v>1.3907850000000001E-3</v>
+        <v>0.15007839000000001</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -881,142 +885,142 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2447310</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4.2987909999999997E-3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2447353</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4.0037759999999997E-3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="10">
+        <v>9330828</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1.3907850000000001E-3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10">
+        <v>9331034</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.5172199999999999E-3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10">
+        <v>9330976</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1.3907850000000001E-3</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10">
         <v>9330399</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1.3907850000000001E-3</v>
-      </c>
-      <c r="E13" s="10">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10">
-        <v>9331140</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1.854381E-3</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="10">
-        <v>9331468</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1.854381E-3</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3.8351959999999999E-3</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="10">
-        <v>9331484</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1.727946E-3</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="10">
-        <v>9330410</v>
       </c>
       <c r="D18" s="7">
         <v>1.3907850000000001E-3</v>
       </c>
       <c r="E18" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="10">
-        <v>2470356</v>
+        <v>9331140</v>
       </c>
       <c r="D19" s="7">
-        <v>0.39093713600000002</v>
+        <v>1.854381E-3</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="10">
-        <v>2510377</v>
+        <v>9331468</v>
       </c>
       <c r="D20" s="7">
-        <v>9.7397124000000002E-2</v>
+        <v>1.854381E-3</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -1025,16 +1029,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10">
-        <v>1564355</v>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>0.11400225899999999</v>
+        <v>3.8351959999999999E-3</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
@@ -1043,34 +1047,34 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="10">
-        <v>1739798</v>
+        <v>9331484</v>
       </c>
       <c r="D22" s="7">
-        <v>0.52124951500000005</v>
+        <v>1.727946E-3</v>
       </c>
       <c r="E22" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="10">
-        <v>2445195</v>
+        <v>9330410</v>
       </c>
       <c r="D23" s="7">
-        <v>1.114651292</v>
+        <v>1.3907850000000001E-3</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -1079,124 +1083,124 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2470356</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.39093713600000002</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2510377</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9.7397124000000002E-2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1564355</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.11400225899999999</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1739798</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.52124951500000005</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2445195</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1.114651292</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="10">
         <v>9589880</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D29" s="7">
         <v>0.314148924</v>
       </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="10">
         <v>1097897</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D30" s="7">
         <v>0.75393213000000003</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="10">
-        <v>1300024</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1.3031237879999999</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1.8965255649999999</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.84964345299999999</v>
-      </c>
-      <c r="E28" s="10">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="7">
-        <v>9.1454677249999996</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="7">
-        <v>4.2145012560000001</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
@@ -1205,118 +1209,112 @@
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1300024</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1.3031237879999999</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1.8965255649999999</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.84964345299999999</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="7">
+        <v>9.1454677249999996</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4.2145012560000001</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="7">
+      <c r="C36" s="10"/>
+      <c r="D36" s="7">
         <v>1.053625314</v>
       </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="13" t="s">
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="14">
-        <f>SUM(D2:D31)</f>
-        <v>22.023044890999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40">
-        <v>2524826</v>
-      </c>
-      <c r="D40">
-        <v>0.248</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41">
-        <v>2496845</v>
-      </c>
-      <c r="D41">
-        <v>0.185</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42">
-        <v>2524833</v>
-      </c>
-      <c r="D42">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43">
-        <v>2496853</v>
-      </c>
-      <c r="D43">
-        <v>0.182</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44">
-        <v>2524841</v>
-      </c>
-      <c r="D44">
-        <v>0.248</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47">
-        <f>SUM(D40:D44)</f>
-        <v>1.139</v>
+      <c r="D37" s="14">
+        <f>SUM(D2:D36)</f>
+        <v>22.069882849000003</v>
       </c>
     </row>
   </sheetData>
